--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>28.01546517181277</v>
+        <v>24.09101170455</v>
       </c>
       <c r="R2">
-        <v>252.139186546315</v>
+        <v>216.81910534095</v>
       </c>
       <c r="S2">
-        <v>0.0002379447764689621</v>
+        <v>0.0002779651580679767</v>
       </c>
       <c r="T2">
-        <v>0.0002379447764689622</v>
+        <v>0.0002779651580679766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>758.1778940548494</v>
+        <v>697.3486024783251</v>
       </c>
       <c r="R3">
-        <v>6823.601046493644</v>
+        <v>6276.137422304925</v>
       </c>
       <c r="S3">
-        <v>0.006439460077432521</v>
+        <v>0.008046096896784144</v>
       </c>
       <c r="T3">
-        <v>0.006439460077432523</v>
+        <v>0.008046096896784144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>1034.817988386556</v>
+        <v>486.708364727025</v>
       </c>
       <c r="R4">
-        <v>9313.361895479004</v>
+        <v>4380.375282543226</v>
       </c>
       <c r="S4">
-        <v>0.00878905752314401</v>
+        <v>0.005615703034538915</v>
       </c>
       <c r="T4">
-        <v>0.008789057523144014</v>
+        <v>0.005615703034538915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>72.52505685670444</v>
+        <v>74.20794029390001</v>
       </c>
       <c r="R5">
-        <v>652.72551171034</v>
+        <v>667.8714626451001</v>
       </c>
       <c r="S5">
-        <v>0.0006159797217834551</v>
+        <v>0.0008562206563453326</v>
       </c>
       <c r="T5">
-        <v>0.0006159797217834552</v>
+        <v>0.0008562206563453325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>776.4516031292294</v>
+        <v>494.0701848932501</v>
       </c>
       <c r="R6">
-        <v>6988.064428163065</v>
+        <v>4446.631664039251</v>
       </c>
       <c r="S6">
-        <v>0.006594664840026896</v>
+        <v>0.0057006446522372</v>
       </c>
       <c r="T6">
-        <v>0.006594664840026897</v>
+        <v>0.005700644652237198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>948.2362804423975</v>
+        <v>886.5330919655772</v>
       </c>
       <c r="R7">
-        <v>8534.126523981578</v>
+        <v>7978.797827690197</v>
       </c>
       <c r="S7">
-        <v>0.008053689931825137</v>
+        <v>0.01022893160581389</v>
       </c>
       <c r="T7">
-        <v>0.008053689931825141</v>
+        <v>0.01022893160581389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>25661.96141178338</v>
@@ -948,10 +948,10 @@
         <v>230957.6527060504</v>
       </c>
       <c r="S8">
-        <v>0.2179556767818902</v>
+        <v>0.2960909756568451</v>
       </c>
       <c r="T8">
-        <v>0.2179556767818903</v>
+        <v>0.2960909756568451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>35025.36738993075</v>
+        <v>17910.54177211937</v>
       </c>
       <c r="R9">
-        <v>315228.3065093768</v>
+        <v>161194.8759490743</v>
       </c>
       <c r="S9">
-        <v>0.2974822357304831</v>
+        <v>0.2066541096665518</v>
       </c>
       <c r="T9">
-        <v>0.2974822357304833</v>
+        <v>0.2066541096665518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>2454.747395087601</v>
+        <v>2730.802490321441</v>
       </c>
       <c r="R10">
-        <v>22092.72655578841</v>
+        <v>24577.22241289297</v>
       </c>
       <c r="S10">
-        <v>0.02084899596097236</v>
+        <v>0.0315083465644268</v>
       </c>
       <c r="T10">
-        <v>0.02084899596097236</v>
+        <v>0.0315083465644268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>26280.46957562463</v>
+        <v>18181.45182249411</v>
       </c>
       <c r="R11">
-        <v>236524.2261806217</v>
+        <v>163633.0664024469</v>
       </c>
       <c r="S11">
-        <v>0.2232088748240026</v>
+        <v>0.2097799042947781</v>
       </c>
       <c r="T11">
-        <v>0.2232088748240027</v>
+        <v>0.2097799042947781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>48.04257704269776</v>
+        <v>192.39558637682</v>
       </c>
       <c r="R12">
-        <v>432.3831933842799</v>
+        <v>1731.56027739138</v>
       </c>
       <c r="S12">
-        <v>0.0004080417792569504</v>
+        <v>0.002219884753478965</v>
       </c>
       <c r="T12">
-        <v>0.0004080417792569505</v>
+        <v>0.002219884753478965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>1300.168305748804</v>
+        <v>5569.163924217164</v>
       </c>
       <c r="R13">
-        <v>11701.51475173924</v>
+        <v>50122.47531795447</v>
       </c>
       <c r="S13">
-        <v>0.01104276709260903</v>
+        <v>0.0642577219041874</v>
       </c>
       <c r="T13">
-        <v>0.01104276709260903</v>
+        <v>0.06425772190418738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>1774.567105251951</v>
+        <v>3886.94930601331</v>
       </c>
       <c r="R14">
-        <v>15971.10394726756</v>
+        <v>34982.54375411979</v>
       </c>
       <c r="S14">
-        <v>0.0150719957922807</v>
+        <v>0.04484811561666972</v>
       </c>
       <c r="T14">
-        <v>0.0150719957922807</v>
+        <v>0.04484811561666972</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>124.3702580055644</v>
+        <v>592.6392947608933</v>
       </c>
       <c r="R15">
-        <v>1119.33232205008</v>
+        <v>5333.75365284804</v>
       </c>
       <c r="S15">
-        <v>0.001056318467640361</v>
+        <v>0.006837947582516566</v>
       </c>
       <c r="T15">
-        <v>0.001056318467640361</v>
+        <v>0.006837947582516564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>1331.505143123364</v>
+        <v>3945.742258548967</v>
       </c>
       <c r="R16">
-        <v>11983.54628811028</v>
+        <v>35511.6803269407</v>
       </c>
       <c r="S16">
-        <v>0.01130892140125981</v>
+        <v>0.04552647618306182</v>
       </c>
       <c r="T16">
-        <v>0.01130892140125981</v>
+        <v>0.04552647618306181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>2.610217457490889</v>
+        <v>1.632034920798</v>
       </c>
       <c r="R17">
-        <v>23.491957117418</v>
+        <v>14.688314287182</v>
       </c>
       <c r="S17">
-        <v>2.21694555363995E-05</v>
+        <v>1.883062655464962E-05</v>
       </c>
       <c r="T17">
-        <v>2.216945553639951E-05</v>
+        <v>1.883062655464961E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>70.63988275078823</v>
+        <v>47.24157229973701</v>
       </c>
       <c r="R18">
-        <v>635.7589447570941</v>
+        <v>425.174150697633</v>
       </c>
       <c r="S18">
-        <v>0.0005999683035012189</v>
+        <v>0.0005450792715855946</v>
       </c>
       <c r="T18">
-        <v>0.0005999683035012193</v>
+        <v>0.0005450792715855944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>96.41460393560956</v>
+        <v>32.971842661509</v>
       </c>
       <c r="R19">
-        <v>867.731435420486</v>
+        <v>296.746583953581</v>
       </c>
       <c r="S19">
-        <v>0.0008188816869935157</v>
+        <v>0.0003804333155285394</v>
       </c>
       <c r="T19">
-        <v>0.000818881686993516</v>
+        <v>0.0003804333155285394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>6.757202436294224</v>
+        <v>5.027184057084</v>
       </c>
       <c r="R20">
-        <v>60.81482192664802</v>
+        <v>45.244656513756</v>
       </c>
       <c r="S20">
-        <v>5.73911949488975E-05</v>
+        <v>5.80042892428734E-05</v>
       </c>
       <c r="T20">
-        <v>5.739119494889752E-05</v>
+        <v>5.800428924287338E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>72.34245503172424</v>
+        <v>33.47056590897001</v>
       </c>
       <c r="R21">
-        <v>651.0820952855181</v>
+        <v>301.23509318073</v>
       </c>
       <c r="S21">
-        <v>0.0006144288230151755</v>
+        <v>0.0003861876478086774</v>
       </c>
       <c r="T21">
-        <v>0.0006144288230151756</v>
+        <v>0.0003861876478086773</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H22">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I22">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J22">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>208.5028355861571</v>
+        <v>70.712773332024</v>
       </c>
       <c r="R22">
-        <v>1876.525520275414</v>
+        <v>636.414959988216</v>
       </c>
       <c r="S22">
-        <v>0.001770884770337822</v>
+        <v>0.0008158929752605094</v>
       </c>
       <c r="T22">
-        <v>0.001770884770337823</v>
+        <v>0.0008158929752605093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H23">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I23">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J23">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>5642.677707462397</v>
+        <v>2046.881810743556</v>
       </c>
       <c r="R23">
-        <v>50784.09936716157</v>
+        <v>18421.93629669201</v>
       </c>
       <c r="S23">
-        <v>0.04792516124770303</v>
+        <v>0.02361718275045878</v>
       </c>
       <c r="T23">
-        <v>0.04792516124770305</v>
+        <v>0.02361718275045878</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H24">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I24">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J24">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>7701.549253990087</v>
+        <v>1428.603277264692</v>
       </c>
       <c r="R24">
-        <v>69313.94328591079</v>
+        <v>12857.42949538223</v>
       </c>
       <c r="S24">
-        <v>0.06541185036431776</v>
+        <v>0.01648340636961752</v>
       </c>
       <c r="T24">
-        <v>0.06541185036431779</v>
+        <v>0.01648340636961752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H25">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I25">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J25">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>539.7618748406339</v>
+        <v>217.817720807792</v>
       </c>
       <c r="R25">
-        <v>4857.856873565705</v>
+        <v>1960.359487270128</v>
       </c>
       <c r="S25">
-        <v>0.004584379301495356</v>
+        <v>0.002513208574918803</v>
       </c>
       <c r="T25">
-        <v>0.004584379301495359</v>
+        <v>0.002513208574918803</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H26">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I26">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J26">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>5778.678310533525</v>
+        <v>1450.21194721636</v>
       </c>
       <c r="R26">
-        <v>52008.10479480172</v>
+        <v>13051.90752494724</v>
       </c>
       <c r="S26">
-        <v>0.04908026015107454</v>
+        <v>0.0167327299527205</v>
       </c>
       <c r="T26">
-        <v>0.04908026015107456</v>
+        <v>0.01673272995272049</v>
       </c>
     </row>
   </sheetData>
